--- a/biology/Médecine/Classe_ATC_L04/Classe_ATC_L04.xlsx
+++ b/biology/Médecine/Classe_ATC_L04/Classe_ATC_L04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC L04, dénommée « Immunosuppresseurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC L04, dénommée « Immunosuppresseurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L04AA Immunosuppresseurs sélectifs
-L04AA02 Muromonab-CD3 (en)
+          <t>L04AA Immunosuppresseurs sélectifs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L04AA02 Muromonab-CD3 (en)
 L04AA03 Immunoglobuline anti-lymphocytes
 L04AA04 Immunoglobuline anti-thymocytes
 L04AA06 Acide mycophénolique
@@ -538,16 +555,84 @@
 L04AA34 Alemtuzumab
 L04AA35 Bégélomab
 L04AA36 Ocrélizumab
-L04AA37 Baricitinib
-L04AB Inhibiteurs du Facteur-alpha Nécrosant des Tumeurs (TNF-alpha)
-L04AB01 Étanercept
+L04AA37 Baricitinib</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L04A Immunosuppresseurs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L04AB Inhibiteurs du Facteur-alpha Nécrosant des Tumeurs (TNF-alpha)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L04AB01 Étanercept
 L04AB02 Infliximab
 L04AB03 Afélimomab (en)
 L04AB04 Adalimumab
 L04AB05 Certolizumab pegol
-L04AB06 Golimumab
-L04AC Inhibiteurs de l'interleukine
-L04AC01 Daclizumab
+L04AB06 Golimumab</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L04A Immunosuppresseurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L04AC Inhibiteurs de l'interleukine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L04AC01 Daclizumab
 L04AC02 Basiliximab
 L04AC03 Anakinra
 L04AC04 Rilonacept
@@ -561,13 +646,81 @@
 L04AC13 Ixékizumab
 L04AC14 Sarilumab
 L04AC15 Sirukumab
-L04AC16 Guselkumab
-L04AD Inhibiteurs de la calcineurine
-L04AD01 Ciclosporine
+L04AC16 Guselkumab</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L04A Immunosuppresseurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L04AD Inhibiteurs de la calcineurine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L04AD01 Ciclosporine
 L04AD02 Tacrolimus
-L04AD03 VoclosporineVoclosporine
-L04AX Autres immunosuppresseurs
-L04AX01 Azathioprine
+L04AD03 VoclosporineVoclosporine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L04A Immunosuppresseurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L04AX Autres immunosuppresseurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L04AX01 Azathioprine
 L04AX02 Thalidomide
 L04AX03 Méthotrexate
 L04AX04 Lénalidomide
